--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -375,40 +375,40 @@
     <t xml:space="preserve">Upper</t>
   </si>
   <si>
-    <t xml:space="preserve">January.2025</t>
+    <t xml:space="preserve">Jan.25</t>
   </si>
   <si>
-    <t xml:space="preserve">February.2025</t>
+    <t xml:space="preserve">Feb.25</t>
   </si>
   <si>
-    <t xml:space="preserve">March.2025</t>
+    <t xml:space="preserve">Mar.25</t>
   </si>
   <si>
-    <t xml:space="preserve">April.2025</t>
+    <t xml:space="preserve">Apr.25</t>
   </si>
   <si>
-    <t xml:space="preserve">May.2025</t>
+    <t xml:space="preserve">May.25</t>
   </si>
   <si>
-    <t xml:space="preserve">June.2025</t>
+    <t xml:space="preserve">Jun.25</t>
   </si>
   <si>
-    <t xml:space="preserve">July.2025</t>
+    <t xml:space="preserve">Jul.25</t>
   </si>
   <si>
-    <t xml:space="preserve">August.2025</t>
+    <t xml:space="preserve">Aug.25</t>
   </si>
   <si>
-    <t xml:space="preserve">September.2025</t>
+    <t xml:space="preserve">Sep.25</t>
   </si>
   <si>
-    <t xml:space="preserve">October.2025</t>
+    <t xml:space="preserve">Oct.25</t>
   </si>
   <si>
-    <t xml:space="preserve">November.2025</t>
+    <t xml:space="preserve">Nov.25</t>
   </si>
   <si>
-    <t xml:space="preserve">December.2025</t>
+    <t xml:space="preserve">Dec.25</t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -454,7 +454,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -500,19 +500,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Caibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Caibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -576,7 +563,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,7 +636,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,15 +645,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -678,47 +661,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1039,16 +981,16 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="21" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,11 +1006,11 @@
       <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22" t="b">
+      <c r="E1" s="5" t="b">
         <f aca="false">AND(E2:E664)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="b">
+      <c r="F1" s="5" t="b">
         <f aca="false">AND(F2:F664)</f>
         <v>1</v>
       </c>
@@ -1086,11 +1028,11 @@
       <c r="D2" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E2" s="21" t="b">
+      <c r="E2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="b">
+      <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1108,11 +1050,11 @@
       <c r="D3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E3" s="21" t="b">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="b">
+      <c r="F3" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1121,7 +1063,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1130,11 +1072,11 @@
       <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="21" t="b">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="b">
+      <c r="F4" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1143,7 +1085,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1152,11 +1094,11 @@
       <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="21" t="b">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="21" t="b">
+      <c r="F5" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1165,7 +1107,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1174,11 +1116,11 @@
       <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="21" t="b">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="21" t="b">
+      <c r="F6" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1187,7 +1129,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1196,11 +1138,11 @@
       <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="21" t="b">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="b">
+      <c r="F7" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1209,7 +1151,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1218,11 +1160,11 @@
       <c r="D8" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E8" s="21" t="b">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="21" t="b">
+      <c r="F8" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1231,7 +1173,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1240,11 +1182,11 @@
       <c r="D9" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E9" s="21" t="b">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="b">
+      <c r="F9" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1253,7 +1195,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1262,11 +1204,11 @@
       <c r="D10" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E10" s="21" t="b">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="b">
+      <c r="F10" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1275,7 +1217,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1284,11 +1226,11 @@
       <c r="D11" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E11" s="21" t="b">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="21" t="b">
+      <c r="F11" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1297,7 +1239,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1306,11 +1248,11 @@
       <c r="D12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E12" s="21" t="b">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="21" t="b">
+      <c r="F12" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1319,7 +1261,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1328,11 +1270,11 @@
       <c r="D13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E13" s="21" t="b">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$986, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="21" t="b">
+      <c r="F13" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4726,7 +4668,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4947,7 +4889,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4990,7 +4932,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="17" t="n">
@@ -5001,7 +4943,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="17" t="n">
@@ -5012,7 +4954,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="17" t="n">
@@ -5023,7 +4965,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="17" t="n">
@@ -5034,7 +4976,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -5045,7 +4987,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="17" t="n">
@@ -5056,7 +4998,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -5067,7 +5009,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -5078,7 +5020,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -5089,7 +5031,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="n">

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -441,7 +441,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">highs</t>
+    <t xml:space="preserve">gcg</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1654,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -79,6 +79,29 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -188,40 +211,6 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -237,40 +226,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
         </r>
       </text>
     </comment>
@@ -301,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -441,6 +396,21 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">Last day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is T:start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is T:end OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is H:start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is H:end OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">gcg</t>
   </si>
 </sst>
@@ -503,7 +473,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,7 +483,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -526,6 +496,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,7 +539,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,6 +628,30 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +681,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1464,51 +1464,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="B1" s="11" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
-        <v>45650</v>
+        <v>45658</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
-        <v>45651</v>
+        <v>45767</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
-        <v>45652</v>
+        <v>45778</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>45658</v>
-      </c>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>45767</v>
-      </c>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>45778</v>
-      </c>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -1627,15 +1638,9 @@
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1644,6 +1649,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1652,10 +1658,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1690,6 +1696,21 @@
       <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="I1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -1714,7 +1735,27 @@
         <v>46053</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="I2" s="25" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <v>46053</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3376,10 +3417,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3388,7 +3429,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,14 +3449,6 @@
       </c>
       <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="e">
-        <f aca="false">AND(G2:G938)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H1" s="5" t="e">
-        <f aca="false">AND(H2:H938)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,7 +3804,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4261,10 +4292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4273,7 +4304,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,14 +4324,6 @@
       </c>
       <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="e">
-        <f aca="false">AND(G2:G938)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H1" s="5" t="e">
-        <f aca="false">AND(H2:H938)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,7 +4679,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4669,7 +4690,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4888,8 +4909,8 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -99,7 +99,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are dates OK?</t>
         </r>
@@ -211,28 +210,6 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -256,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -539,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -628,11 +605,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,6 +634,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD8CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1489,7 +1479,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -1498,7 +1488,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -1507,7 +1497,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -1696,19 +1686,19 @@
       <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1737,23 +1727,23 @@
       <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="25" t="n">
+      <c r="I2" s="24" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="26" t="n">
+      <c r="J2" s="25" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="27" t="b">
+      <c r="L2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="27" t="b">
+      <c r="M2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -2634,8 +2624,8 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2679,19 +2669,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="12" t="n">
-        <v>45658</v>
+        <v>45814</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>45813</v>
+        <v>45844</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
@@ -2707,25 +2697,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>45814</v>
+        <v>45658</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>45844</v>
+        <v>45813</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2735,25 +2725,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45658</v>
+        <v>45714</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>45713</v>
+        <v>45759</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2763,25 +2753,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>45714</v>
+        <v>45658</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>45759</v>
+        <v>45713</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2800,16 +2790,16 @@
         <v>45715</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2819,25 +2809,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>45716</v>
+        <v>45839</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>45838</v>
+        <v>45884</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2847,25 +2837,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>45839</v>
+        <v>45716</v>
       </c>
       <c r="D8" s="12" t="n">
-        <v>45884</v>
+        <v>45838</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2884,16 +2874,16 @@
         <v>45767</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2903,25 +2893,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>45768</v>
+        <v>45926</v>
       </c>
       <c r="D10" s="12" t="n">
-        <v>45925</v>
+        <v>45960</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2931,25 +2921,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>45926</v>
+        <v>45768</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>45960</v>
+        <v>45925</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2968,16 +2958,16 @@
         <v>45822</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2987,25 +2977,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>45823</v>
+        <v>46022</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3015,25 +3005,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>46022</v>
+        <v>45823</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>46053</v>
+        <v>46021</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3812,17 +3802,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,31 +3830,10 @@
       <c r="E1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F938)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="C2" s="17" t="n">
-        <v>46023</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -4283,7 +4251,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4690,7 +4657,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4735,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
@@ -4909,7 +4876,7 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -516,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,12 +589,24 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -634,23 +646,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -978,7 +973,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
   </cols>
@@ -1009,7 +1004,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1031,7 +1026,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -1053,7 +1048,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1075,7 +1070,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1097,7 +1092,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1119,7 +1114,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1141,7 +1136,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1163,7 +1158,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1185,7 +1180,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1207,7 +1202,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1229,7 +1224,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1251,7 +1246,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1463,7 +1458,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,19 +1681,19 @@
       <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1727,23 +1722,23 @@
       <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="24" t="n">
+      <c r="I2" s="27" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="25" t="n">
+      <c r="J2" s="28" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="K2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="26" t="b">
+      <c r="L2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="26" t="b">
+      <c r="M2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -2624,7 +2619,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4874,16 +4869,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,31 +4892,43 @@
       <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="19" t="b">
+        <f aca="false">AND(D2:D900)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="21" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="21" t="n">
         <v>45672</v>
       </c>
+      <c r="D2" s="22" t="b">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="21" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="19" t="n">
+      <c r="C3" s="21" t="n">
         <v>45701</v>
       </c>
+      <c r="D3" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="17" t="n">
@@ -4929,9 +4937,13 @@
       <c r="C4" s="17" t="n">
         <v>45732</v>
       </c>
+      <c r="D4" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="17" t="n">
@@ -4940,9 +4952,13 @@
       <c r="C5" s="17" t="n">
         <v>45761</v>
       </c>
+      <c r="D5" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="17" t="n">
@@ -4951,9 +4967,13 @@
       <c r="C6" s="17" t="n">
         <v>45795</v>
       </c>
+      <c r="D6" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="17" t="n">
@@ -4962,9 +4982,13 @@
       <c r="C7" s="17" t="n">
         <v>45826</v>
       </c>
+      <c r="D7" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -4973,9 +4997,13 @@
       <c r="C8" s="17" t="n">
         <v>45855</v>
       </c>
+      <c r="D8" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="17" t="n">
@@ -4984,9 +5012,13 @@
       <c r="C9" s="17" t="n">
         <v>45886</v>
       </c>
+      <c r="D9" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -4995,9 +5027,13 @@
       <c r="C10" s="6" t="n">
         <v>45915</v>
       </c>
+      <c r="D10" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -5006,9 +5042,13 @@
       <c r="C11" s="6" t="n">
         <v>45945</v>
       </c>
+      <c r="D11" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -5017,9 +5057,13 @@
       <c r="C12" s="6" t="n">
         <v>45973</v>
       </c>
+      <c r="D12" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -5027,6 +5071,10 @@
       </c>
       <c r="C13" s="6" t="n">
         <v>46002</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -247,10 +247,10 @@
     <t xml:space="preserve">the 1st unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
+    <t xml:space="preserve">Start</t>
   </si>
   <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -516,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,24 +589,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -822,8 +810,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -966,14 +954,14 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
   </cols>
@@ -1004,7 +992,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1026,7 +1014,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -1048,7 +1036,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1070,7 +1058,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1092,7 +1080,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1114,7 +1102,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1136,7 +1124,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1158,7 +1146,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1180,7 +1168,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1202,7 +1190,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1224,7 +1212,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1246,7 +1234,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1458,7 +1446,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,19 +1669,19 @@
       <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1722,23 +1710,23 @@
       <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="27" t="n">
+      <c r="I2" s="24" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="28" t="n">
+      <c r="J2" s="25" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="29" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="29" t="b">
+      <c r="L2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="29" t="b">
+      <c r="M2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -1762,7 +1750,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2620,7 +2608,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3405,7 +3393,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3800,7 +3788,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4257,7 +4245,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4652,7 +4640,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4871,15 +4859,15 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,43 +4880,43 @@
       <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="b">
+      <c r="D1" s="5" t="b">
         <f aca="false">AND(D2:D900)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="19" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="19" t="n">
         <v>45672</v>
       </c>
-      <c r="D2" s="22" t="b">
+      <c r="D2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="19" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="19" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="17" t="n">
@@ -4937,13 +4925,13 @@
       <c r="C4" s="17" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="17" t="n">
@@ -4952,13 +4940,13 @@
       <c r="C5" s="17" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="17" t="n">
@@ -4967,13 +4955,13 @@
       <c r="C6" s="17" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="17" t="n">
@@ -4982,13 +4970,13 @@
       <c r="C7" s="17" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -4997,13 +4985,13 @@
       <c r="C8" s="17" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="17" t="n">
@@ -5012,13 +5000,13 @@
       <c r="C9" s="17" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -5027,13 +5015,13 @@
       <c r="C10" s="6" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -5042,13 +5030,13 @@
       <c r="C11" s="6" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -5057,13 +5045,13 @@
       <c r="C12" s="6" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -5072,7 +5060,7 @@
       <c r="C13" s="6" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="22" t="n">
+      <c r="D13" s="2" t="n">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -233,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -355,40 +361,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is T:end OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:end OK?</t>
-  </si>
-  <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -401,7 +479,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,8 +527,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +564,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +708,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,7 +776,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -810,7 +901,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1462,7 +1553,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -1471,7 +1562,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -1480,7 +1571,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -1631,17 +1722,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1654,35 +1745,8 @@
       <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,43 +1756,551 @@
       <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>46053</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>46053</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="24" t="n">
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="25" t="n">
-        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
-        <v>1</v>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +2368,7 @@
       <c r="D2" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1818,7 +2390,7 @@
       <c r="D3" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1840,7 +2412,7 @@
       <c r="D4" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1862,7 +2434,7 @@
       <c r="D5" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1884,7 +2456,7 @@
       <c r="D6" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1906,7 +2478,7 @@
       <c r="D7" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1928,7 +2500,7 @@
       <c r="D8" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1950,7 +2522,7 @@
       <c r="D9" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1972,7 +2544,7 @@
       <c r="D10" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1994,7 +2566,7 @@
       <c r="D11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2016,7 +2588,7 @@
       <c r="D12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2038,7 +2610,7 @@
       <c r="D13" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2060,7 +2632,7 @@
       <c r="D14" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$735, A14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4910,7 +5482,7 @@
       <c r="C3" s="19" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4925,7 +5497,7 @@
       <c r="C4" s="17" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4940,7 +5512,7 @@
       <c r="C5" s="17" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4955,7 +5527,7 @@
       <c r="C6" s="17" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4970,7 +5542,7 @@
       <c r="C7" s="17" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4985,7 +5557,7 @@
       <c r="C8" s="17" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5000,7 +5572,7 @@
       <c r="C9" s="17" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5015,7 +5587,7 @@
       <c r="C10" s="6" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5030,7 +5602,7 @@
       <c r="C11" s="6" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5045,7 +5617,7 @@
       <c r="C12" s="6" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -5060,7 +5632,7 @@
       <c r="C13" s="6" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">#7BC8F6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#EE0000</t>
   </si>
   <si>
     <t xml:space="preserve">Task with bounds</t>
@@ -479,7 +476,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -533,6 +530,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -607,7 +609,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -710,6 +712,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -901,7 +907,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1051,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1536,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1730,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1782,8 +1788,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1841,8 +1847,8 @@
       <c r="E2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>46053</v>
+      <c r="F2" s="26" t="n">
+        <v>46002</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>51</v>
@@ -1853,11 +1859,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="26" t="b">
+      <c r="J2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="K2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1880,8 +1886,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,8 +1944,8 @@
       <c r="E2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>46053</v>
+      <c r="F2" s="26" t="n">
+        <v>46002</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>54</v>
@@ -1950,11 +1956,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="26" t="b">
+      <c r="J2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="K2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1977,8 +1983,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2030,16 +2036,17 @@
         <v>45658</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="26" t="b">
+      <c r="H2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="26" t="b">
+      <c r="I2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2062,8 +2069,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2120,8 +2127,8 @@
       <c r="E2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>46053</v>
+      <c r="F2" s="26" t="n">
+        <v>46002</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>61</v>
@@ -2132,11 +2139,11 @@
       <c r="I2" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="J2" s="26" t="b">
+      <c r="J2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="K2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2159,7 +2166,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2205,8 +2212,9 @@
       <c r="E2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>66</v>
+      <c r="F2" s="7" t="e">
+        <f aca="false">E2+20</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -2230,8 +2238,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2244,7 +2252,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>43</v>
@@ -2256,22 +2264,22 @@
         <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2293,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>52</v>
@@ -2294,7 +2302,7 @@
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -2321,7 +2329,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2755,7 +2763,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3179,7 +3187,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3964,7 +3972,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4359,7 +4367,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4816,7 +4824,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5211,7 +5219,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5431,7 +5439,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -476,7 +476,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,11 +530,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -609,7 +604,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -712,10 +707,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1789,7 +1780,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1847,8 +1838,9 @@
       <c r="E2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="26" t="n">
-        <v>46002</v>
+      <c r="F2" s="6" t="n">
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>51</v>
@@ -1859,11 +1851,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="27" t="b">
+      <c r="J2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1886,8 +1878,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1944,8 +1936,9 @@
       <c r="E2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="26" t="n">
-        <v>46002</v>
+      <c r="F2" s="6" t="n">
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>54</v>
@@ -1956,11 +1949,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="27" t="b">
+      <c r="J2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2042,11 +2035,11 @@
       <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="27" t="b">
+      <c r="H2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="27" t="b">
+      <c r="I2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2127,7 +2120,7 @@
       <c r="E2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="F2" s="26" t="n">
+      <c r="F2" s="6" t="n">
         <v>46002</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2139,11 +2132,11 @@
       <c r="I2" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="J2" s="27" t="b">
+      <c r="J2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2238,7 +2231,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
   </si>
   <si>
     <t xml:space="preserve">Task with bounds</t>
@@ -1042,7 +1045,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1783,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1878,8 +1881,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2159,8 +2162,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2205,9 +2208,8 @@
       <c r="E2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="e">
-        <f aca="false">E2+20</f>
-        <v>#VALUE!</v>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -2245,7 +2247,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>43</v>
@@ -2257,22 +2259,22 @@
         <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2288,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>52</v>
@@ -2295,7 +2297,7 @@
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -5433,7 +5435,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -2063,16 +2063,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,25 +2089,13 @@
         <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,28 +2108,14 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>46002</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2136,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -467,6 +468,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2070,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2278,6 +2282,65 @@
       </c>
       <c r="J2" s="7" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1621,7 +1621,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4849,7 +4849,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -363,10 +363,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -1045,17 +1051,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1068,8 +1074,11 @@
       <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,9 +1089,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="24" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>46053</v>
       </c>
@@ -1121,13 +1133,13 @@
         <v>39</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1136,19 +1148,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,10 +1181,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1182,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1216,16 +1228,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1234,19 +1246,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,10 +1279,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1280,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1314,16 +1326,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1332,13 +1344,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1400,25 +1412,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1444,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -1471,25 +1483,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,10 +1515,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -1544,34 +1556,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,16 +1597,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -1621,7 +1633,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1633,19 +1645,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -375,6 +376,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -384,6 +388,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -391,12 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -615,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -717,10 +721,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1053,7 +1053,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1115,31 +1115,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1147,53 +1146,36 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="E2" s="12" t="n">
+        <f aca="false">misc!A2+1</f>
+        <v>45657</v>
+      </c>
+      <c r="F2" s="12" t="n">
         <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="26" t="b">
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -1214,86 +1196,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1312,74 +1250,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1398,16 +1303,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,41 +1320,11 @@
         <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1469,59 +1344,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1540,79 +1397,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1631,46 +1450,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
+++ b/ampl-data-input-excel/11-PM.Angel/11-PM.Angel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">gcg</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -910,7 +910,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="D1:D2 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1053,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,8 +1525,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2425,7 +2425,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3210,7 +3210,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3667,7 +3667,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3887,7 +3887,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D2 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4251,7 +4251,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="D1:D2 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4736,7 +4736,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="1" sqref="D1:D2 G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
